--- a/database/industries/foroushgah/ofogh/cost/yearly.xlsx
+++ b/database/industries/foroushgah/ofogh/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC73D1D-6907-4ED0-BA2E-9A9A210F31BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +351,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -362,7 +363,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -409,6 +410,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -444,6 +462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/foroushgah/ofogh/cost/yearly.xlsx
+++ b/database/industries/foroushgah/ofogh/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC73D1D-6907-4ED0-BA2E-9A9A210F31BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F112A-FE4F-45DB-B3ED-4B68DFB5124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -635,12 +635,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +650,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +684,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +718,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,7 +750,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -772,7 +772,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -838,7 +838,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -882,7 +882,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -926,7 +926,7 @@
         <v>-5875095</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -948,7 +948,7 @@
         <v>196900080</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -970,7 +970,7 @@
         <v>20362723</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -992,7 +992,7 @@
         <v>-25389401</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>191873402</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>191873402</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1120,7 +1120,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1198,7 +1198,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1208,7 +1208,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1218,7 +1218,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1250,7 +1250,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1328,7 +1328,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1468,7 +1468,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1478,7 +1478,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1510,7 +1510,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1598,7 +1598,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1608,7 +1608,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1640,7 +1640,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1720,7 +1720,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1730,7 +1730,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1740,7 +1740,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1772,7 +1772,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1852,7 +1852,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1862,7 +1862,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1872,7 +1872,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1904,7 +1904,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>202775175</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1984,7 +1984,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1994,7 +1994,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>34</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2126,7 +2126,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2136,7 +2136,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2168,7 +2168,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>202775175000000</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2202,7 +2202,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2212,7 +2212,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2222,7 +2222,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>202775175000000</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2298,7 +2298,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>38</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2340,7 +2340,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>39</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>40</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>41</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>42</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>43</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>45</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>46</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>48</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>49</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>50</v>
       </c>
